--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2687426.928926765</v>
+        <v>-2690121.726202614</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.1298577207905</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.41994504831916</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>74.08682336414034</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.78116022224987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>236.8373124149004</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>319.8470490290775</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>78.87534259307466</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.18421556648264</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567088</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567862</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>97.27989568773788</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341707</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2132,13 +2132,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002295</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096047</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972048</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,13 +4189,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.2769458819329</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C2" t="n">
-        <v>141.2769458819329</v>
+        <v>141.276945881932</v>
       </c>
       <c r="D2" t="n">
-        <v>141.2769458819329</v>
+        <v>141.276945881932</v>
       </c>
       <c r="E2" t="n">
-        <v>141.2769458819329</v>
+        <v>141.276945881932</v>
       </c>
       <c r="F2" t="n">
-        <v>141.2769458819329</v>
+        <v>141.276945881932</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>141.276945881932</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.25053145306</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182946</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460547</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4519,19 +4519,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056668</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764946</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800313</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1137.765993863679</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.765993863679</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>779.5002952569287</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570292</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,46 +4571,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872918</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188881</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188881</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927801</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.365833927801</v>
+        <v>1985.680440362237</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217535</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118699</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.639966294861</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.0354892056668</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803389</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800313</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800313</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>113.0490245139452</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,7 +4744,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
         <v>1533.86271359008</v>
@@ -4756,19 +4756,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485143</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426274</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056668</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X7" t="n">
-        <v>281.0354892056668</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.0354892056668</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125552</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.71592618514</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868962</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4878,43 +4878,43 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.201569949316</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.434954518842</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.332087644485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>973.6475994385985</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5030,46 +5030,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6133,7 +6133,7 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
         <v>268.5553036345476</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,10 +6169,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6361,28 +6361,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6449,37 +6449,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7081,25 +7081,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,7 +7111,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7315,10 +7315,10 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184737</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184722</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>113.160065015104</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>322.4178450521635</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22723,7 +22723,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>51.34064071570128</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>178.0508199596877</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403375</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819076</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29520.00810516209</v>
+        <v>29520.00810516214</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
@@ -26430,28 +26430,28 @@
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744331</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="J4" t="n">
+        <v>16718.11565483774</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16718.11565483774</v>
+      </c>
+      <c r="L4" t="n">
         <v>16718.11565483775</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16718.11565483775</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16718.11565483776</v>
       </c>
       <c r="M4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
         <v>16718.11565483775</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1237209.564120927</v>
+        <v>-1237673.860912951</v>
       </c>
       <c r="C6" t="n">
         <v>-228459.9094168278</v>
       </c>
       <c r="D6" t="n">
-        <v>-388475.3721648265</v>
+        <v>-388475.3721648264</v>
       </c>
       <c r="E6" t="n">
-        <v>-435262.2480230068</v>
+        <v>-435296.9859484425</v>
       </c>
       <c r="F6" t="n">
-        <v>-109849.7862156514</v>
+        <v>-109884.5241410871</v>
       </c>
       <c r="G6" t="n">
-        <v>-109849.7862156515</v>
+        <v>-109884.5241410871</v>
       </c>
       <c r="H6" t="n">
-        <v>-109849.7862156514</v>
+        <v>-109884.5241410871</v>
       </c>
       <c r="I6" t="n">
         <v>-139309.9495023849</v>
@@ -26552,7 +26552,7 @@
         <v>-168176.2015169439</v>
       </c>
       <c r="M6" t="n">
-        <v>-204937.259444265</v>
+        <v>-204937.2594442649</v>
       </c>
       <c r="N6" t="n">
         <v>-139309.9495023849</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.710750722054701e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>293.7159807266074</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>277.5986075140862</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.45595448819928</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>145.0930576573614</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>66.3908896269761</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>88.37147850555317</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>86.06729358864621</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306771727</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492527</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.48912964370402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.2320741356201</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28801,22 +28801,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28852,22 +28852,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31847,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>544.514022642006</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35030,13 +35030,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420045</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
